--- a/projekt bazy.xlsx
+++ b/projekt bazy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Korepetycje\Osoby\KrzysztyofToruń\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A402190-F085-4E79-8C6F-F30CADEE3202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF503E4-2C83-4971-85BC-6B792981225C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="855" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">SELECT </t>
+    <t>Lista korepetytorow</t>
   </si>
   <si>
-    <t>kolumny</t>
+    <t>Korepetytor</t>
   </si>
   <si>
-    <t>FROM</t>
+    <t>Lista ucznow</t>
   </si>
   <si>
-    <t>z kad</t>
+    <t>Uczen</t>
   </si>
   <si>
-    <t xml:space="preserve">WHERE </t>
+    <t>Lista Kont</t>
   </si>
   <si>
-    <t>warunek</t>
+    <t>Konto</t>
+  </si>
+  <si>
+    <t>Lista Lekcji</t>
+  </si>
+  <si>
+    <t>Lekcja</t>
   </si>
 </sst>
 </file>
@@ -170,6 +176,27 @@
             <a:t>haslo</a:t>
           </a:r>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>imie</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>nazwisko</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>czyAdministrator</a:t>
+          </a:r>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -1130,15 +1157,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1153,7 +1180,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10820400" y="352425"/>
+          <a:off x="10725150" y="409575"/>
           <a:ext cx="600075" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1363,6 +1390,267 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Prostokąt 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A690CB92-8FEE-41D7-83B1-682879A865A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13706475" y="3524251"/>
+          <a:ext cx="1971675" cy="857250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>przedmiot</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>int</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100" baseline="0"/>
+            <a:t> id</a:t>
+          </a:r>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>nazwa</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="pl-PL" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>71438</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Łącznik: zakrzywiony 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6299D036-7872-491D-8914-BA8D77817597}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12172950" y="3500438"/>
+          <a:ext cx="1533525" cy="452438"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Prostokąt 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3166B7E3-B1A7-475F-8936-182E78B88839}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13058775" y="3324225"/>
+          <a:ext cx="600075" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Prostokąt 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF84566F-6CB0-49D3-92B9-CA1B6DE8420B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12239625" y="2924175"/>
+          <a:ext cx="600075" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="pl-PL" sz="1100"/>
+            <a:t>*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1631,36 +1919,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B24:C26"/>
+  <dimension ref="A28:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="C25" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
